--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6A2939-8F0F-437A-B805-AE629AE320C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2DEA5-AC03-4C57-B559-5CFF824168B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F51" si="0">F3*2.25</f>
+        <f t="shared" ref="F4:F67" si="0">F3*2.25</f>
         <v>7.8058311975988033E+84</v>
       </c>
       <c r="G4">
@@ -985,7 +985,7 @@
         <v>9018</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D51" si="1">D3+1</f>
+        <f t="shared" ref="D8:D71" si="1">D3+1</f>
         <v>2</v>
       </c>
       <c r="E8">
@@ -2470,9 +2470,1029 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2687366386901518E+101</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4104657437052842E+102</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1735479233368895E+102</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>7.140482827508002E+102</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6066086361893004E+103</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6148694314259256E+103</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1334562207083332E+103</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.830027649659375E+104</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1175622117335941E+104</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2645149764005872E+104</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0845158696901321E+105</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6901607068027976E+105</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0552861590306294E+106</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>2.374393857818916E+106</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3423861800925613E+106</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2020368905208263E+107</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68:F81" si="2">F67*2.25</f>
+        <v>2.7045830036718591E+107</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0853117582616836E+107</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3691951456088788E+108</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0806890776199771E+108</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D81" si="3">D67+1</f>
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="2"/>
+        <v>6.9315504246449489E+108</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5595988455451135E+109</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5090974024765051E+109</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8954691555721363E+109</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7764805600037305E+110</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="2"/>
+        <v>3.997081260008394E+110</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9934328350188866E+110</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0235223878792495E+111</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9018</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5529253727283116E+111</v>
+      </c>
+      <c r="G80">
+        <v>1000</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3">
+        <v>9013</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0244082088638702E+112</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>17800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B51 D2:J51">
+  <conditionalFormatting sqref="D2:J81 A2:B81">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2486,7 +3506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18C141-318D-4E81-877F-8C05E69781EF}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2DEA5-AC03-4C57-B559-5CFF824168B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03814DA-1D7D-4D11-B08E-5D4CFA4E95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -944,10 +944,12 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
+      <c r="B7" s="1" t="str">
+        <f>B2</f>
+        <v>1-1</v>
       </c>
       <c r="C7" s="3">
+        <f>C2</f>
         <v>9018</v>
       </c>
       <c r="D7">
@@ -978,14 +980,16 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" s="1" t="str">
+        <f t="shared" ref="B8:B71" si="1">B3</f>
+        <v>1-1</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" ref="C8:C71" si="2">C3</f>
         <v>9018</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D71" si="1">D3+1</f>
+        <f t="shared" ref="D8:D71" si="3">D3+1</f>
         <v>2</v>
       </c>
       <c r="E8">
@@ -1012,14 +1016,16 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E9">
@@ -1046,14 +1052,16 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E10">
@@ -1080,14 +1088,16 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E11">
@@ -1114,14 +1124,16 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E12">
@@ -1148,14 +1160,16 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E13">
@@ -1182,14 +1196,16 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E14">
@@ -1216,14 +1232,16 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C15" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E15">
@@ -1250,14 +1268,16 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E16">
@@ -1284,14 +1304,16 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C17" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E17">
@@ -1318,14 +1340,16 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E18">
@@ -1352,14 +1376,16 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C19" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E19">
@@ -1386,14 +1412,16 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C20" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E20">
@@ -1420,14 +1448,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C21" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E21">
@@ -1454,14 +1484,16 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E22">
@@ -1488,14 +1520,16 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E23">
@@ -1522,14 +1556,16 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E24">
@@ -1556,14 +1592,16 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E25">
@@ -1590,14 +1628,16 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C26" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E26">
@@ -1624,14 +1664,16 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C27" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E27">
@@ -1658,14 +1700,16 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C28" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E28">
@@ -1692,14 +1736,16 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C29" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E29">
@@ -1726,14 +1772,16 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C30" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E30">
@@ -1760,14 +1808,16 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C31" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E31">
@@ -1794,14 +1844,16 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C32" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E32">
@@ -1828,14 +1880,16 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C33" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E33">
@@ -1862,14 +1916,16 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C34" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E34">
@@ -1896,14 +1952,16 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>40</v>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C35" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E35">
@@ -1930,14 +1988,16 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C36" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E36">
@@ -1964,14 +2024,16 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C37" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E37">
@@ -1998,14 +2060,16 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C38" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E38">
@@ -2032,14 +2096,16 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C39" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E39">
@@ -2066,14 +2132,16 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C40" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E40">
@@ -2100,14 +2168,16 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C41" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E41">
@@ -2134,10 +2204,12 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C42" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D42">
@@ -2168,14 +2240,16 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C43" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E43">
@@ -2202,14 +2276,16 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>40</v>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C44" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E44">
@@ -2236,14 +2312,16 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>40</v>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C45" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E45">
@@ -2270,14 +2348,16 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C46" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E46">
@@ -2304,14 +2384,16 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C47" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E47">
@@ -2338,14 +2420,16 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C48" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E48">
@@ -2372,14 +2456,16 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C49" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E49">
@@ -2406,14 +2492,16 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>40</v>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C50" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E50">
@@ -2440,14 +2528,16 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C51" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E51">
@@ -2474,14 +2564,16 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C52" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E52">
@@ -2508,14 +2600,16 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C53" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E53">
@@ -2542,14 +2636,16 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>40</v>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C54" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E54">
@@ -2576,14 +2672,16 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C55" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E55">
@@ -2610,14 +2708,16 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C56" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E56">
@@ -2644,14 +2744,16 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C57" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E57">
@@ -2678,14 +2780,16 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C58" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E58">
@@ -2712,14 +2816,16 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>40</v>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C59" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E59">
@@ -2746,14 +2852,16 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>40</v>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C60" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E60">
@@ -2780,14 +2888,16 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C61" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E61">
@@ -2814,14 +2924,16 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C62" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E62">
@@ -2848,14 +2960,16 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C63" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E63">
@@ -2882,14 +2996,16 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>40</v>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C64" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E64">
@@ -2916,14 +3032,16 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>40</v>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C65" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E65">
@@ -2950,14 +3068,16 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>11</v>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C66" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E66">
@@ -2984,14 +3104,16 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C67" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E67">
@@ -3018,21 +3140,23 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>10</v>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C68" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F81" si="2">F67*2.25</f>
+        <f t="shared" ref="F68:F101" si="4">F67*2.25</f>
         <v>2.7045830036718591E+107</v>
       </c>
       <c r="G68">
@@ -3052,21 +3176,23 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>40</v>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C69" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0853117582616836E+107</v>
       </c>
       <c r="G69">
@@ -3086,21 +3212,23 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>40</v>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C70" s="3">
+        <f t="shared" si="2"/>
         <v>9018</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3691951456088788E+108</v>
       </c>
       <c r="G70">
@@ -3120,21 +3248,23 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-2</v>
       </c>
       <c r="C71" s="3">
+        <f t="shared" si="2"/>
         <v>9013</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0806890776199771E+108</v>
       </c>
       <c r="G71">
@@ -3154,21 +3284,23 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>10</v>
+      <c r="B72" s="1" t="str">
+        <f t="shared" ref="B72:B101" si="5">B67</f>
+        <v>1-1</v>
       </c>
       <c r="C72" s="3">
+        <f t="shared" ref="C72:C101" si="6">C67</f>
         <v>9018</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D81" si="3">D67+1</f>
+        <f t="shared" ref="D72:D101" si="7">D67+1</f>
         <v>15</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.9315504246449489E+108</v>
       </c>
       <c r="G72">
@@ -3188,21 +3320,23 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C73" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5595988455451135E+109</v>
       </c>
       <c r="G73">
@@ -3222,21 +3356,23 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>40</v>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C74" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5090974024765051E+109</v>
       </c>
       <c r="G74">
@@ -3256,21 +3392,23 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>40</v>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C75" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8954691555721363E+109</v>
       </c>
       <c r="G75">
@@ -3290,21 +3428,23 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
       <c r="C76" s="3">
+        <f t="shared" si="6"/>
         <v>9013</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7764805600037305E+110</v>
       </c>
       <c r="G76">
@@ -3324,21 +3464,23 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C77" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.997081260008394E+110</v>
       </c>
       <c r="G77">
@@ -3358,21 +3500,23 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C78" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9934328350188866E+110</v>
       </c>
       <c r="G78">
@@ -3392,21 +3536,23 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C79" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0235223878792495E+111</v>
       </c>
       <c r="G79">
@@ -3426,21 +3572,23 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>10</v>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
       </c>
       <c r="C80" s="3">
+        <f t="shared" si="6"/>
         <v>9018</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5529253727283116E+111</v>
       </c>
       <c r="G80">
@@ -3460,21 +3608,23 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
       </c>
       <c r="C81" s="3">
+        <f t="shared" si="6"/>
         <v>9013</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0244082088638702E+112</v>
       </c>
       <c r="G81">
@@ -3490,9 +3640,729 @@
         <v>17800</v>
       </c>
     </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="4"/>
+        <v>2.304918469943708E+112</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1860665573733432E+112</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1668649754090022E+113</v>
+      </c>
+      <c r="G84">
+        <v>1000</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6254461946702548E+113</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9072539380080736E+113</v>
+      </c>
+      <c r="G86">
+        <v>1000</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3291321360518167E+114</v>
+      </c>
+      <c r="G87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9905473061165878E+114</v>
+      </c>
+      <c r="G88">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="4"/>
+        <v>6.7287314387623229E+114</v>
+      </c>
+      <c r="G89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5139645737215227E+115</v>
+      </c>
+      <c r="G90">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="4"/>
+        <v>3.406420290873426E+115</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6644456544652081E+115</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7245002722546719E+116</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="4"/>
+        <v>3.8801256125730115E+116</v>
+      </c>
+      <c r="G94">
+        <v>1000</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="4"/>
+        <v>8.7302826282892764E+116</v>
+      </c>
+      <c r="G95">
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9643135913650871E+117</v>
+      </c>
+      <c r="G96">
+        <v>1000</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4197055805714458E+117</v>
+      </c>
+      <c r="G97">
+        <v>1000</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9443375562857535E+117</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2374759501642943E+118</v>
+      </c>
+      <c r="G99">
+        <v>1000</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0343208878696624E+118</v>
+      </c>
+      <c r="G100">
+        <v>1000</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1327221997706739E+119</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>21800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:J81 A2:B81">
+  <conditionalFormatting sqref="D2:J101 A2:B101">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3506,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18C141-318D-4E81-877F-8C05E69781EF}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03814DA-1D7D-4D11-B08E-5D4CFA4E95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE35A4-C174-4C77-B275-AC53E015BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F101" si="4">F67*2.25</f>
+        <f t="shared" ref="F68:F131" si="4">F67*2.25</f>
         <v>2.7045830036718591E+107</v>
       </c>
       <c r="G68">
@@ -3285,15 +3285,15 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B101" si="5">B67</f>
+        <f t="shared" ref="B72:B131" si="5">B67</f>
         <v>1-1</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ref="C72:C101" si="6">C67</f>
+        <f t="shared" ref="C72:C131" si="6">C67</f>
         <v>9018</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D101" si="7">D67+1</f>
+        <f t="shared" ref="D72:D131" si="7">D67+1</f>
         <v>15</v>
       </c>
       <c r="E72">
@@ -4360,9 +4360,1089 @@
         <v>21800</v>
       </c>
     </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5486249494840162E+119</v>
+      </c>
+      <c r="G102">
+        <v>1000</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="4"/>
+        <v>5.7344061363390363E+119</v>
+      </c>
+      <c r="G103">
+        <v>1000</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2902413806762832E+120</v>
+      </c>
+      <c r="G104">
+        <v>1000</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9030431065216373E+120</v>
+      </c>
+      <c r="G105">
+        <v>1000</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5318469896736843E+120</v>
+      </c>
+      <c r="G106">
+        <v>1000</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4696655726765789E+121</v>
+      </c>
+      <c r="G107">
+        <v>1000</v>
+      </c>
+      <c r="H107">
+        <v>8</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3067475385223025E+121</v>
+      </c>
+      <c r="G108">
+        <v>1000</v>
+      </c>
+      <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4401819616751805E+121</v>
+      </c>
+      <c r="G109">
+        <v>1000</v>
+      </c>
+      <c r="H109">
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6740409413769155E+122</v>
+      </c>
+      <c r="G110">
+        <v>1000</v>
+      </c>
+      <c r="H110">
+        <v>8</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="4"/>
+        <v>3.7665921180980602E+122</v>
+      </c>
+      <c r="G111">
+        <v>1000</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="4"/>
+        <v>8.4748322657206354E+122</v>
+      </c>
+      <c r="G112">
+        <v>1000</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="4"/>
+        <v>1.906837259787143E+123</v>
+      </c>
+      <c r="G113">
+        <v>1000</v>
+      </c>
+      <c r="H113">
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2903838345210714E+123</v>
+      </c>
+      <c r="G114">
+        <v>1000</v>
+      </c>
+      <c r="H114">
+        <v>8</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="4"/>
+        <v>9.6533636276724109E+123</v>
+      </c>
+      <c r="G115">
+        <v>1000</v>
+      </c>
+      <c r="H115">
+        <v>8</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1720068162262922E+124</v>
+      </c>
+      <c r="G116">
+        <v>1000</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8870153365091577E+124</v>
+      </c>
+      <c r="G117">
+        <v>1000</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0995784507145604E+125</v>
+      </c>
+      <c r="G118">
+        <v>1000</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4740515141077609E+125</v>
+      </c>
+      <c r="G119">
+        <v>1000</v>
+      </c>
+      <c r="H119">
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="4"/>
+        <v>5.5666159067424623E+125</v>
+      </c>
+      <c r="G120">
+        <v>1000</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="4"/>
+        <v>1.252488579017054E+126</v>
+      </c>
+      <c r="G121">
+        <v>1000</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8180993027883715E+126</v>
+      </c>
+      <c r="G122">
+        <v>1000</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3407234312738354E+126</v>
+      </c>
+      <c r="G123">
+        <v>1000</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4266627720366131E+127</v>
+      </c>
+      <c r="G124">
+        <v>1000</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2099912370823796E+127</v>
+      </c>
+      <c r="G125">
+        <v>1000</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2224802834353541E+127</v>
+      </c>
+      <c r="G126">
+        <v>1000</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6250580637729546E+128</v>
+      </c>
+      <c r="G127">
+        <v>1000</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6563806434891482E+128</v>
+      </c>
+      <c r="G128">
+        <v>1000</v>
+      </c>
+      <c r="H128">
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2268564478505829E+128</v>
+      </c>
+      <c r="G129">
+        <v>1000</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8510427007663811E+129</v>
+      </c>
+      <c r="G130">
+        <v>1000</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-2</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" si="6"/>
+        <v>9013</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1648460767243574E+129</v>
+      </c>
+      <c r="G131">
+        <v>1000</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>27800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:J101 A2:B101">
+  <conditionalFormatting sqref="A2:B131 D2:J131">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4376,7 +5456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18C141-318D-4E81-877F-8C05E69781EF}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:E31"/>
     </sheetView>
   </sheetViews>
